--- a/aalatih.xlsx
+++ b/aalatih.xlsx
@@ -386,7 +386,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
